--- a/settings/keywords_list.xlsx
+++ b/settings/keywords_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surface Laptop\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengshenglin/Developer/Python Projects/Individual Project/CovidPolicy_Spider/settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F8D135-45E1-44A2-BA00-3C6B74136BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40176F92-3861-DD41-9891-795AB76C3F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1423" yWindow="1654" windowWidth="17580" windowHeight="9360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="1660" windowWidth="24820" windowHeight="12920" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="广州" sheetId="2" r:id="rId1"/>
@@ -39,17 +39,25 @@
     <sheet name="福州" sheetId="18" r:id="rId24"/>
     <sheet name="昆明" sheetId="19" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="47">
   <si>
     <t>取消大型公共聚集活动（经贸展会、演出、宗教等)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -190,6 +198,10 @@
   <si>
     <t>餐馆：禁止堂食</t>
   </si>
+  <si>
+    <t>血清流行病学抽样调查</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +211,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -207,27 +219,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,7 +248,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,7 +257,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +319,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,13 +616,13 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3:DB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" ht="38.6" customHeight="1">
+    <row r="1" spans="1:105" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4692,6 +4710,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4705,13 +4724,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5209,6 +5228,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5221,13 +5241,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5725,6 +5745,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5737,13 +5758,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -6241,25 +6262,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E93027-EDC2-41BA-8448-E70AB0DE64F8}">
-  <dimension ref="A1:CY35"/>
+  <dimension ref="A1:DJ35"/>
   <sheetViews>
-    <sheetView topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="CN12" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="CY1" workbookViewId="0">
+      <selection activeCell="DM19" sqref="DM19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:114" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -6569,92 +6595,123 @@
       <c r="CY1" s="5">
         <v>43946</v>
       </c>
-    </row>
-    <row r="2" spans="1:103">
+      <c r="CZ1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="DA1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="DB1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="DC1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="DD1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="DE1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="DF1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="DG1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="DH1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="DI1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="DJ1" s="5">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:114">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:103">
+    <row r="3" spans="1:114">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:103">
+    </row>
+    <row r="4" spans="1:114">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:103">
+    </row>
+    <row r="5" spans="1:114">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:103">
+    <row r="6" spans="1:114">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:103">
+    <row r="7" spans="1:114">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:103">
+    <row r="8" spans="1:114">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:103">
+    <row r="9" spans="1:114">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:103">
+    <row r="10" spans="1:114">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:103">
+    <row r="11" spans="1:114">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:103">
+    <row r="12" spans="1:114">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:103">
+    <row r="13" spans="1:114">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:103">
+    <row r="14" spans="1:114">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:103">
+    <row r="15" spans="1:114">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:103">
+    <row r="16" spans="1:114">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -6757,6 +6814,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6769,13 +6827,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -7273,25 +7331,42 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8315C5-C714-4579-A5B0-D635912C21EE}">
-  <dimension ref="A1:CY35"/>
+  <dimension ref="A1:DJ36"/>
   <sheetViews>
-    <sheetView topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="CN12" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q30" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="74" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="96" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="103" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:114" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -7601,194 +7676,4658 @@
       <c r="CY1" s="5">
         <v>43946</v>
       </c>
-    </row>
-    <row r="2" spans="1:103">
+      <c r="CZ1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="DA1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="DB1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="DC1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="DD1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="DE1" s="5">
+        <v>43952</v>
+      </c>
+      <c r="DF1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="DG1" s="5">
+        <v>43954</v>
+      </c>
+      <c r="DH1" s="5">
+        <v>43955</v>
+      </c>
+      <c r="DI1" s="5">
+        <v>43956</v>
+      </c>
+      <c r="DJ1" s="5">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:114">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:103">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:114">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:103">
+      <c r="B3" s="8"/>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>1</v>
+      </c>
+      <c r="DF3">
+        <v>1</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DH3">
+        <v>1</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
+      </c>
+      <c r="DJ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:114">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:103">
+      <c r="B4" s="8"/>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
+        <v>1</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>1</v>
+      </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CN4">
+        <v>1</v>
+      </c>
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
+        <v>1</v>
+      </c>
+      <c r="CS4">
+        <v>1</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:114">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:103">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:114">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:103">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1</v>
+      </c>
+      <c r="T6" s="8">
+        <v>1</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1</v>
+      </c>
+      <c r="V6" s="8">
+        <v>1</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:114">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:103">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:114">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:103">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CT8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CU8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CV8" s="8">
+        <v>1</v>
+      </c>
+      <c r="CW8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:114">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:103">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1</v>
+      </c>
+      <c r="T9" s="8">
+        <v>1</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="8">
+        <v>1</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BT9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BX9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BZ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CA9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CD9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CE9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CN9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CR9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CS9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CT9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CU9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CV9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CW9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CX9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CY9" s="8">
+        <v>1</v>
+      </c>
+      <c r="CZ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DA9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DC9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DD9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DE9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DF9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DG9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DH9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DI9" s="8">
+        <v>1</v>
+      </c>
+      <c r="DJ9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:114">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:103">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BR10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BT10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BV10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BX10" s="8"/>
+      <c r="BY10" s="8"/>
+      <c r="BZ10" s="8"/>
+      <c r="CA10" s="8"/>
+      <c r="CB10" s="8"/>
+      <c r="CC10" s="8"/>
+      <c r="CD10" s="8"/>
+      <c r="CE10" s="8"/>
+      <c r="CF10" s="8"/>
+      <c r="CG10" s="8"/>
+      <c r="CH10" s="8"/>
+      <c r="CI10" s="8"/>
+      <c r="CJ10" s="8"/>
+      <c r="CK10" s="8"/>
+    </row>
+    <row r="11" spans="1:114">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:103">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:114">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:103">
+      <c r="B12" s="8"/>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:114">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:103">
+      <c r="B13" s="8"/>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>1</v>
+      </c>
+      <c r="BG13">
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <v>1</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13">
+        <v>1</v>
+      </c>
+      <c r="BK13">
+        <v>1</v>
+      </c>
+      <c r="BL13">
+        <v>1</v>
+      </c>
+      <c r="BM13">
+        <v>1</v>
+      </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <v>1</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+      <c r="BR13">
+        <v>1</v>
+      </c>
+      <c r="BS13">
+        <v>1</v>
+      </c>
+      <c r="BT13">
+        <v>1</v>
+      </c>
+      <c r="BU13">
+        <v>1</v>
+      </c>
+      <c r="BV13">
+        <v>1</v>
+      </c>
+      <c r="BW13">
+        <v>1</v>
+      </c>
+      <c r="BX13">
+        <v>1</v>
+      </c>
+      <c r="BY13">
+        <v>1</v>
+      </c>
+      <c r="BZ13">
+        <v>1</v>
+      </c>
+      <c r="CA13">
+        <v>1</v>
+      </c>
+      <c r="CB13">
+        <v>1</v>
+      </c>
+      <c r="CC13">
+        <v>1</v>
+      </c>
+      <c r="CD13">
+        <v>1</v>
+      </c>
+      <c r="CE13">
+        <v>1</v>
+      </c>
+      <c r="CF13">
+        <v>1</v>
+      </c>
+      <c r="CG13">
+        <v>1</v>
+      </c>
+      <c r="CH13">
+        <v>1</v>
+      </c>
+      <c r="CI13">
+        <v>1</v>
+      </c>
+      <c r="CJ13">
+        <v>1</v>
+      </c>
+      <c r="CK13">
+        <v>1</v>
+      </c>
+      <c r="CL13">
+        <v>1</v>
+      </c>
+      <c r="CM13">
+        <v>1</v>
+      </c>
+      <c r="CN13">
+        <v>1</v>
+      </c>
+      <c r="CO13">
+        <v>1</v>
+      </c>
+      <c r="CP13">
+        <v>1</v>
+      </c>
+      <c r="CQ13">
+        <v>1</v>
+      </c>
+      <c r="CR13">
+        <v>1</v>
+      </c>
+      <c r="CS13">
+        <v>1</v>
+      </c>
+      <c r="CT13">
+        <v>1</v>
+      </c>
+      <c r="CU13">
+        <v>1</v>
+      </c>
+      <c r="CV13">
+        <v>1</v>
+      </c>
+      <c r="CW13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:114">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:103">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:114">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:103">
+      <c r="B15" s="8"/>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>1</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>1</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
+      <c r="BJ15">
+        <v>1</v>
+      </c>
+      <c r="BK15">
+        <v>1</v>
+      </c>
+      <c r="BL15">
+        <v>1</v>
+      </c>
+      <c r="BM15">
+        <v>1</v>
+      </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
+      <c r="BR15">
+        <v>1</v>
+      </c>
+      <c r="BS15">
+        <v>1</v>
+      </c>
+      <c r="BT15">
+        <v>1</v>
+      </c>
+      <c r="BU15">
+        <v>1</v>
+      </c>
+      <c r="BV15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:114">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:114">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:114">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="9"/>
+      <c r="CQ18">
+        <v>1</v>
+      </c>
+      <c r="CR18">
+        <v>1</v>
+      </c>
+      <c r="CS18">
+        <v>1</v>
+      </c>
+      <c r="CT18">
+        <v>1</v>
+      </c>
+      <c r="CU18">
+        <v>1</v>
+      </c>
+      <c r="CV18">
+        <v>1</v>
+      </c>
+      <c r="CW18">
+        <v>1</v>
+      </c>
+      <c r="CX18">
+        <v>1</v>
+      </c>
+      <c r="CY18">
+        <v>1</v>
+      </c>
+      <c r="CZ18">
+        <v>1</v>
+      </c>
+      <c r="DA18">
+        <v>1</v>
+      </c>
+      <c r="DB18">
+        <v>1</v>
+      </c>
+      <c r="DC18">
+        <v>1</v>
+      </c>
+      <c r="DD18">
+        <v>1</v>
+      </c>
+      <c r="DE18">
+        <v>1</v>
+      </c>
+      <c r="DF18">
+        <v>1</v>
+      </c>
+      <c r="DG18">
+        <v>1</v>
+      </c>
+      <c r="DH18">
+        <v>1</v>
+      </c>
+      <c r="DI18">
+        <v>1</v>
+      </c>
+      <c r="DJ18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:114">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="9"/>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>1</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>1</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19">
+        <v>1</v>
+      </c>
+      <c r="BI19">
+        <v>1</v>
+      </c>
+      <c r="BJ19">
+        <v>1</v>
+      </c>
+      <c r="BK19">
+        <v>1</v>
+      </c>
+      <c r="BL19">
+        <v>1</v>
+      </c>
+      <c r="BM19">
+        <v>1</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:114">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="9"/>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>1</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
+      <c r="BF20">
+        <v>1</v>
+      </c>
+      <c r="BG20">
+        <v>1</v>
+      </c>
+      <c r="BH20">
+        <v>1</v>
+      </c>
+      <c r="BI20">
+        <v>1</v>
+      </c>
+      <c r="BJ20">
+        <v>1</v>
+      </c>
+      <c r="BK20">
+        <v>1</v>
+      </c>
+      <c r="BL20">
+        <v>1</v>
+      </c>
+      <c r="BM20">
+        <v>1</v>
+      </c>
+      <c r="BN20">
+        <v>1</v>
+      </c>
+      <c r="BO20">
+        <v>1</v>
+      </c>
+      <c r="BP20">
+        <v>1</v>
+      </c>
+      <c r="BQ20">
+        <v>1</v>
+      </c>
+      <c r="BR20">
+        <v>1</v>
+      </c>
+      <c r="BS20">
+        <v>1</v>
+      </c>
+      <c r="BT20">
+        <v>1</v>
+      </c>
+      <c r="BU20">
+        <v>1</v>
+      </c>
+      <c r="BV20">
+        <v>1</v>
+      </c>
+      <c r="BW20">
+        <v>1</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
+      </c>
+      <c r="BY20">
+        <v>1</v>
+      </c>
+      <c r="BZ20">
+        <v>1</v>
+      </c>
+      <c r="CA20">
+        <v>1</v>
+      </c>
+      <c r="CB20">
+        <v>1</v>
+      </c>
+      <c r="CC20">
+        <v>1</v>
+      </c>
+      <c r="CD20">
+        <v>1</v>
+      </c>
+      <c r="CE20">
+        <v>1</v>
+      </c>
+      <c r="CF20">
+        <v>1</v>
+      </c>
+      <c r="CG20">
+        <v>1</v>
+      </c>
+      <c r="CH20">
+        <v>1</v>
+      </c>
+      <c r="CI20">
+        <v>1</v>
+      </c>
+      <c r="CJ20">
+        <v>1</v>
+      </c>
+      <c r="CK20">
+        <v>1</v>
+      </c>
+      <c r="CL20">
+        <v>1</v>
+      </c>
+      <c r="CM20">
+        <v>1</v>
+      </c>
+      <c r="CN20">
+        <v>1</v>
+      </c>
+      <c r="CO20">
+        <v>1</v>
+      </c>
+      <c r="CP20">
+        <v>1</v>
+      </c>
+      <c r="CQ20">
+        <v>1</v>
+      </c>
+      <c r="CR20">
+        <v>1</v>
+      </c>
+      <c r="CS20">
+        <v>1</v>
+      </c>
+      <c r="CT20">
+        <v>1</v>
+      </c>
+      <c r="CU20">
+        <v>1</v>
+      </c>
+      <c r="CV20">
+        <v>1</v>
+      </c>
+      <c r="CW20">
+        <v>1</v>
+      </c>
+      <c r="CX20">
+        <v>1</v>
+      </c>
+      <c r="CY20">
+        <v>1</v>
+      </c>
+      <c r="CZ20">
+        <v>1</v>
+      </c>
+      <c r="DA20">
+        <v>1</v>
+      </c>
+      <c r="DB20">
+        <v>1</v>
+      </c>
+      <c r="DC20">
+        <v>1</v>
+      </c>
+      <c r="DD20">
+        <v>1</v>
+      </c>
+      <c r="DE20">
+        <v>1</v>
+      </c>
+      <c r="DF20">
+        <v>1</v>
+      </c>
+      <c r="DG20">
+        <v>1</v>
+      </c>
+      <c r="DH20">
+        <v>1</v>
+      </c>
+      <c r="DI20">
+        <v>1</v>
+      </c>
+      <c r="DJ20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:114">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="9"/>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21">
+        <v>1</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>1</v>
+      </c>
+      <c r="BF21">
+        <v>1</v>
+      </c>
+      <c r="BG21">
+        <v>1</v>
+      </c>
+      <c r="BH21">
+        <v>1</v>
+      </c>
+      <c r="BI21">
+        <v>1</v>
+      </c>
+      <c r="BJ21">
+        <v>1</v>
+      </c>
+      <c r="BK21">
+        <v>1</v>
+      </c>
+      <c r="BL21">
+        <v>1</v>
+      </c>
+      <c r="BM21">
+        <v>1</v>
+      </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
+      <c r="BO21">
+        <v>1</v>
+      </c>
+      <c r="BP21">
+        <v>1</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
+      <c r="BR21">
+        <v>1</v>
+      </c>
+      <c r="BS21">
+        <v>1</v>
+      </c>
+      <c r="BT21">
+        <v>1</v>
+      </c>
+      <c r="BU21">
+        <v>1</v>
+      </c>
+      <c r="BV21">
+        <v>1</v>
+      </c>
+      <c r="BW21">
+        <v>1</v>
+      </c>
+      <c r="BX21">
+        <v>1</v>
+      </c>
+      <c r="BY21">
+        <v>1</v>
+      </c>
+      <c r="BZ21">
+        <v>1</v>
+      </c>
+      <c r="CA21">
+        <v>1</v>
+      </c>
+      <c r="CB21">
+        <v>1</v>
+      </c>
+      <c r="CC21">
+        <v>1</v>
+      </c>
+      <c r="CD21">
+        <v>1</v>
+      </c>
+      <c r="CE21">
+        <v>1</v>
+      </c>
+      <c r="CF21">
+        <v>1</v>
+      </c>
+      <c r="CG21">
+        <v>1</v>
+      </c>
+      <c r="CH21">
+        <v>1</v>
+      </c>
+      <c r="CI21">
+        <v>1</v>
+      </c>
+      <c r="CJ21">
+        <v>1</v>
+      </c>
+      <c r="CK21">
+        <v>1</v>
+      </c>
+      <c r="CL21">
+        <v>1</v>
+      </c>
+      <c r="CM21">
+        <v>1</v>
+      </c>
+      <c r="CN21">
+        <v>1</v>
+      </c>
+      <c r="CO21">
+        <v>1</v>
+      </c>
+      <c r="CP21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:114">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:114">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="9"/>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>1</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>1</v>
+      </c>
+      <c r="BE23">
+        <v>1</v>
+      </c>
+      <c r="BF23">
+        <v>1</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>1</v>
+      </c>
+      <c r="BI23">
+        <v>1</v>
+      </c>
+      <c r="BJ23">
+        <v>1</v>
+      </c>
+      <c r="BK23">
+        <v>1</v>
+      </c>
+      <c r="BL23">
+        <v>1</v>
+      </c>
+      <c r="BM23">
+        <v>1</v>
+      </c>
+      <c r="BN23">
+        <v>1</v>
+      </c>
+      <c r="BO23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:114">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24" s="9"/>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>1</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+      <c r="BF24">
+        <v>1</v>
+      </c>
+      <c r="BG24">
+        <v>1</v>
+      </c>
+      <c r="BH24">
+        <v>1</v>
+      </c>
+      <c r="BI24">
+        <v>1</v>
+      </c>
+      <c r="BJ24">
+        <v>1</v>
+      </c>
+      <c r="BK24">
+        <v>1</v>
+      </c>
+      <c r="BL24">
+        <v>1</v>
+      </c>
+      <c r="BM24">
+        <v>1</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24">
+        <v>1</v>
+      </c>
+      <c r="BP24">
+        <v>1</v>
+      </c>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24">
+        <v>1</v>
+      </c>
+      <c r="BS24">
+        <v>1</v>
+      </c>
+      <c r="BT24">
+        <v>1</v>
+      </c>
+      <c r="BU24">
+        <v>1</v>
+      </c>
+      <c r="BV24">
+        <v>1</v>
+      </c>
+      <c r="BW24">
+        <v>1</v>
+      </c>
+      <c r="BX24">
+        <v>1</v>
+      </c>
+      <c r="BY24">
+        <v>1</v>
+      </c>
+      <c r="BZ24">
+        <v>1</v>
+      </c>
+      <c r="CA24">
+        <v>1</v>
+      </c>
+      <c r="CB24">
+        <v>1</v>
+      </c>
+      <c r="CC24">
+        <v>1</v>
+      </c>
+      <c r="CD24">
+        <v>1</v>
+      </c>
+      <c r="CE24">
+        <v>1</v>
+      </c>
+      <c r="CF24">
+        <v>1</v>
+      </c>
+      <c r="CG24">
+        <v>1</v>
+      </c>
+      <c r="CH24">
+        <v>1</v>
+      </c>
+      <c r="CI24">
+        <v>1</v>
+      </c>
+      <c r="CJ24">
+        <v>1</v>
+      </c>
+      <c r="CK24">
+        <v>1</v>
+      </c>
+      <c r="CL24">
+        <v>1</v>
+      </c>
+      <c r="CM24">
+        <v>1</v>
+      </c>
+      <c r="CN24">
+        <v>1</v>
+      </c>
+      <c r="CO24">
+        <v>1</v>
+      </c>
+      <c r="CP24">
+        <v>1</v>
+      </c>
+      <c r="CQ24">
+        <v>1</v>
+      </c>
+      <c r="CR24">
+        <v>1</v>
+      </c>
+      <c r="CS24">
+        <v>1</v>
+      </c>
+      <c r="CT24">
+        <v>1</v>
+      </c>
+      <c r="CU24">
+        <v>1</v>
+      </c>
+      <c r="CV24">
+        <v>1</v>
+      </c>
+      <c r="CW24">
+        <v>1</v>
+      </c>
+      <c r="CX24">
+        <v>1</v>
+      </c>
+      <c r="CY24">
+        <v>1</v>
+      </c>
+      <c r="CZ24">
+        <v>1</v>
+      </c>
+      <c r="DA24">
+        <v>1</v>
+      </c>
+      <c r="DB24">
+        <v>1</v>
+      </c>
+      <c r="DC24">
+        <v>1</v>
+      </c>
+      <c r="DD24">
+        <v>1</v>
+      </c>
+      <c r="DE24">
+        <v>1</v>
+      </c>
+      <c r="DF24">
+        <v>1</v>
+      </c>
+      <c r="DG24">
+        <v>1</v>
+      </c>
+      <c r="DH24">
+        <v>1</v>
+      </c>
+      <c r="DI24">
+        <v>1</v>
+      </c>
+      <c r="DJ24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:114">
       <c r="A25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="9"/>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>1</v>
+      </c>
+      <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>1</v>
+      </c>
+      <c r="BE25">
+        <v>1</v>
+      </c>
+      <c r="BF25">
+        <v>1</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>1</v>
+      </c>
+      <c r="BI25">
+        <v>1</v>
+      </c>
+      <c r="BJ25">
+        <v>1</v>
+      </c>
+      <c r="BK25">
+        <v>1</v>
+      </c>
+      <c r="BL25">
+        <v>1</v>
+      </c>
+      <c r="BM25">
+        <v>1</v>
+      </c>
+      <c r="BN25">
+        <v>1</v>
+      </c>
+      <c r="BO25">
+        <v>1</v>
+      </c>
+      <c r="BP25">
+        <v>1</v>
+      </c>
+      <c r="BQ25">
+        <v>1</v>
+      </c>
+      <c r="BR25">
+        <v>1</v>
+      </c>
+      <c r="BS25">
+        <v>1</v>
+      </c>
+      <c r="BT25">
+        <v>1</v>
+      </c>
+      <c r="BU25">
+        <v>1</v>
+      </c>
+      <c r="BV25">
+        <v>1</v>
+      </c>
+      <c r="BW25">
+        <v>1</v>
+      </c>
+      <c r="BX25">
+        <v>1</v>
+      </c>
+      <c r="BY25">
+        <v>1</v>
+      </c>
+      <c r="BZ25">
+        <v>1</v>
+      </c>
+      <c r="CA25">
+        <v>1</v>
+      </c>
+      <c r="CB25">
+        <v>1</v>
+      </c>
+      <c r="CC25">
+        <v>1</v>
+      </c>
+      <c r="CD25">
+        <v>1</v>
+      </c>
+      <c r="CE25">
+        <v>1</v>
+      </c>
+      <c r="CF25">
+        <v>1</v>
+      </c>
+      <c r="CG25">
+        <v>1</v>
+      </c>
+      <c r="CH25">
+        <v>1</v>
+      </c>
+      <c r="CI25">
+        <v>1</v>
+      </c>
+      <c r="CJ25">
+        <v>1</v>
+      </c>
+      <c r="CK25">
+        <v>1</v>
+      </c>
+      <c r="CL25">
+        <v>1</v>
+      </c>
+      <c r="CM25">
+        <v>1</v>
+      </c>
+      <c r="CN25">
+        <v>1</v>
+      </c>
+      <c r="CO25">
+        <v>1</v>
+      </c>
+      <c r="CP25">
+        <v>1</v>
+      </c>
+      <c r="CQ25">
+        <v>1</v>
+      </c>
+      <c r="CR25">
+        <v>1</v>
+      </c>
+      <c r="CS25">
+        <v>1</v>
+      </c>
+      <c r="CT25">
+        <v>1</v>
+      </c>
+      <c r="CU25">
+        <v>1</v>
+      </c>
+      <c r="CV25">
+        <v>1</v>
+      </c>
+      <c r="CW25">
+        <v>1</v>
+      </c>
+      <c r="CX25">
+        <v>1</v>
+      </c>
+      <c r="CY25">
+        <v>1</v>
+      </c>
+      <c r="CZ25">
+        <v>1</v>
+      </c>
+      <c r="DA25">
+        <v>1</v>
+      </c>
+      <c r="DB25">
+        <v>1</v>
+      </c>
+      <c r="DC25">
+        <v>1</v>
+      </c>
+      <c r="DD25">
+        <v>1</v>
+      </c>
+      <c r="DE25">
+        <v>1</v>
+      </c>
+      <c r="DF25">
+        <v>1</v>
+      </c>
+      <c r="DG25">
+        <v>1</v>
+      </c>
+      <c r="DH25">
+        <v>1</v>
+      </c>
+      <c r="DI25">
+        <v>1</v>
+      </c>
+      <c r="DJ25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:114">
       <c r="A26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" s="9"/>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>1</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26">
+        <v>1</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>1</v>
+      </c>
+      <c r="BC26">
+        <v>1</v>
+      </c>
+      <c r="BD26">
+        <v>1</v>
+      </c>
+      <c r="BE26">
+        <v>1</v>
+      </c>
+      <c r="BF26">
+        <v>1</v>
+      </c>
+      <c r="BG26">
+        <v>1</v>
+      </c>
+      <c r="BH26">
+        <v>1</v>
+      </c>
+      <c r="BI26">
+        <v>1</v>
+      </c>
+      <c r="BJ26">
+        <v>1</v>
+      </c>
+      <c r="BK26">
+        <v>1</v>
+      </c>
+      <c r="BL26">
+        <v>1</v>
+      </c>
+      <c r="BM26">
+        <v>1</v>
+      </c>
+      <c r="BN26">
+        <v>1</v>
+      </c>
+      <c r="BO26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:114">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="9"/>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>1</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>1</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27">
+        <v>1</v>
+      </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+      <c r="BC27">
+        <v>1</v>
+      </c>
+      <c r="BD27">
+        <v>1</v>
+      </c>
+      <c r="BE27">
+        <v>1</v>
+      </c>
+      <c r="BF27">
+        <v>1</v>
+      </c>
+      <c r="BG27">
+        <v>1</v>
+      </c>
+      <c r="BH27">
+        <v>1</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27">
+        <v>1</v>
+      </c>
+      <c r="BK27">
+        <v>1</v>
+      </c>
+      <c r="BL27">
+        <v>1</v>
+      </c>
+      <c r="BM27">
+        <v>1</v>
+      </c>
+      <c r="BN27">
+        <v>1</v>
+      </c>
+      <c r="BO27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:114">
       <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:114">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29" s="9"/>
+      <c r="BN29">
+        <v>1</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>1</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
+      </c>
+      <c r="BR29">
+        <v>1</v>
+      </c>
+      <c r="BS29">
+        <v>1</v>
+      </c>
+      <c r="BT29">
+        <v>1</v>
+      </c>
+      <c r="BU29">
+        <v>1</v>
+      </c>
+      <c r="BV29">
+        <v>1</v>
+      </c>
+      <c r="BW29">
+        <v>1</v>
+      </c>
+      <c r="BX29">
+        <v>1</v>
+      </c>
+      <c r="BY29">
+        <v>1</v>
+      </c>
+      <c r="BZ29">
+        <v>1</v>
+      </c>
+      <c r="CA29">
+        <v>1</v>
+      </c>
+      <c r="CB29">
+        <v>1</v>
+      </c>
+      <c r="CC29">
+        <v>1</v>
+      </c>
+      <c r="CD29">
+        <v>1</v>
+      </c>
+      <c r="CE29">
+        <v>1</v>
+      </c>
+      <c r="CF29">
+        <v>1</v>
+      </c>
+      <c r="CG29">
+        <v>1</v>
+      </c>
+      <c r="CH29">
+        <v>1</v>
+      </c>
+      <c r="CI29">
+        <v>1</v>
+      </c>
+      <c r="CJ29">
+        <v>1</v>
+      </c>
+      <c r="CK29">
+        <v>1</v>
+      </c>
+      <c r="CL29">
+        <v>1</v>
+      </c>
+      <c r="CM29">
+        <v>1</v>
+      </c>
+      <c r="CN29">
+        <v>1</v>
+      </c>
+      <c r="CO29">
+        <v>1</v>
+      </c>
+      <c r="CP29">
+        <v>1</v>
+      </c>
+      <c r="CQ29">
+        <v>1</v>
+      </c>
+      <c r="CR29">
+        <v>1</v>
+      </c>
+      <c r="CS29">
+        <v>1</v>
+      </c>
+      <c r="CT29">
+        <v>1</v>
+      </c>
+      <c r="CU29">
+        <v>1</v>
+      </c>
+      <c r="CV29">
+        <v>1</v>
+      </c>
+      <c r="CW29">
+        <v>1</v>
+      </c>
+      <c r="CX29">
+        <v>1</v>
+      </c>
+      <c r="CY29">
+        <v>1</v>
+      </c>
+      <c r="CZ29">
+        <v>1</v>
+      </c>
+      <c r="DA29">
+        <v>1</v>
+      </c>
+      <c r="DB29">
+        <v>1</v>
+      </c>
+      <c r="DC29">
+        <v>1</v>
+      </c>
+      <c r="DD29">
+        <v>1</v>
+      </c>
+      <c r="DE29">
+        <v>1</v>
+      </c>
+      <c r="DF29">
+        <v>1</v>
+      </c>
+      <c r="DG29">
+        <v>1</v>
+      </c>
+      <c r="DH29">
+        <v>1</v>
+      </c>
+      <c r="DI29">
+        <v>1</v>
+      </c>
+      <c r="DJ29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:114">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30" s="9"/>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>1</v>
+      </c>
+      <c r="AT30">
+        <v>1</v>
+      </c>
+      <c r="AU30">
+        <v>1</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>1</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30">
+        <v>1</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>1</v>
+      </c>
+      <c r="BC30">
+        <v>1</v>
+      </c>
+      <c r="BD30">
+        <v>1</v>
+      </c>
+      <c r="BE30">
+        <v>1</v>
+      </c>
+      <c r="BF30">
+        <v>1</v>
+      </c>
+      <c r="BG30">
+        <v>1</v>
+      </c>
+      <c r="BH30">
+        <v>1</v>
+      </c>
+      <c r="BI30">
+        <v>1</v>
+      </c>
+      <c r="BJ30">
+        <v>1</v>
+      </c>
+      <c r="BK30">
+        <v>1</v>
+      </c>
+      <c r="BL30">
+        <v>1</v>
+      </c>
+      <c r="BM30">
+        <v>1</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:114">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:114">
       <c r="A32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="8"/>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+      <c r="AS32">
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <v>1</v>
+      </c>
+      <c r="AU32">
+        <v>1</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>1</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32">
+        <v>1</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>1</v>
+      </c>
+      <c r="BC32">
+        <v>1</v>
+      </c>
+      <c r="BD32">
+        <v>1</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
+      <c r="BF32">
+        <v>1</v>
+      </c>
+      <c r="BG32">
+        <v>1</v>
+      </c>
+      <c r="BH32">
+        <v>1</v>
+      </c>
+      <c r="BI32">
+        <v>1</v>
+      </c>
+      <c r="BJ32">
+        <v>1</v>
+      </c>
+      <c r="BK32">
+        <v>1</v>
+      </c>
+      <c r="BL32">
+        <v>1</v>
+      </c>
+      <c r="BM32">
+        <v>1</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>1</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32">
+        <v>1</v>
+      </c>
+      <c r="BS32">
+        <v>1</v>
+      </c>
+      <c r="BT32">
+        <v>1</v>
+      </c>
+      <c r="BU32">
+        <v>1</v>
+      </c>
+      <c r="BV32">
+        <v>1</v>
+      </c>
+      <c r="BW32">
+        <v>1</v>
+      </c>
+      <c r="BX32">
+        <v>1</v>
+      </c>
+      <c r="BY32">
+        <v>1</v>
+      </c>
+      <c r="BZ32">
+        <v>1</v>
+      </c>
+      <c r="CA32">
+        <v>1</v>
+      </c>
+      <c r="CB32">
+        <v>1</v>
+      </c>
+      <c r="CC32">
+        <v>1</v>
+      </c>
+      <c r="CD32">
+        <v>1</v>
+      </c>
+      <c r="CE32">
+        <v>1</v>
+      </c>
+      <c r="CF32">
+        <v>1</v>
+      </c>
+      <c r="CG32">
+        <v>1</v>
+      </c>
+      <c r="CH32">
+        <v>1</v>
+      </c>
+      <c r="CI32">
+        <v>1</v>
+      </c>
+      <c r="CJ32">
+        <v>1</v>
+      </c>
+      <c r="CK32">
+        <v>1</v>
+      </c>
+      <c r="CL32">
+        <v>1</v>
+      </c>
+      <c r="CM32">
+        <v>1</v>
+      </c>
+      <c r="CN32">
+        <v>1</v>
+      </c>
+      <c r="CO32">
+        <v>1</v>
+      </c>
+      <c r="CP32">
+        <v>1</v>
+      </c>
+      <c r="CQ32">
+        <v>1</v>
+      </c>
+      <c r="CR32">
+        <v>1</v>
+      </c>
+      <c r="CS32">
+        <v>1</v>
+      </c>
+      <c r="CT32">
+        <v>1</v>
+      </c>
+      <c r="CU32">
+        <v>1</v>
+      </c>
+      <c r="CV32">
+        <v>1</v>
+      </c>
+      <c r="CW32">
+        <v>1</v>
+      </c>
+      <c r="CX32">
+        <v>1</v>
+      </c>
+      <c r="CY32">
+        <v>1</v>
+      </c>
+      <c r="CZ32">
+        <v>1</v>
+      </c>
+      <c r="DA32">
+        <v>1</v>
+      </c>
+      <c r="DB32">
+        <v>1</v>
+      </c>
+      <c r="DC32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:114">
       <c r="A33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:114">
       <c r="A34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="9"/>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>1</v>
+      </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
+      <c r="AU34">
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34">
+        <v>1</v>
+      </c>
+      <c r="BA34">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>1</v>
+      </c>
+      <c r="BC34">
+        <v>1</v>
+      </c>
+      <c r="BD34">
+        <v>1</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>1</v>
+      </c>
+      <c r="BG34">
+        <v>1</v>
+      </c>
+      <c r="BH34">
+        <v>1</v>
+      </c>
+      <c r="BI34">
+        <v>1</v>
+      </c>
+      <c r="BJ34">
+        <v>1</v>
+      </c>
+      <c r="BK34">
+        <v>1</v>
+      </c>
+      <c r="BL34">
+        <v>1</v>
+      </c>
+      <c r="BM34">
+        <v>1</v>
+      </c>
+      <c r="BN34">
+        <v>1</v>
+      </c>
+      <c r="BO34">
+        <v>1</v>
+      </c>
+      <c r="BP34">
+        <v>1</v>
+      </c>
+      <c r="BQ34">
+        <v>1</v>
+      </c>
+      <c r="BR34">
+        <v>1</v>
+      </c>
+      <c r="BS34">
+        <v>1</v>
+      </c>
+      <c r="BT34">
+        <v>1</v>
+      </c>
+      <c r="BU34">
+        <v>1</v>
+      </c>
+      <c r="BV34">
+        <v>1</v>
+      </c>
+      <c r="BW34">
+        <v>1</v>
+      </c>
+      <c r="BX34">
+        <v>1</v>
+      </c>
+      <c r="BY34">
+        <v>1</v>
+      </c>
+      <c r="BZ34">
+        <v>1</v>
+      </c>
+      <c r="CA34">
+        <v>1</v>
+      </c>
+      <c r="CB34">
+        <v>1</v>
+      </c>
+      <c r="CC34">
+        <v>1</v>
+      </c>
+      <c r="CD34">
+        <v>1</v>
+      </c>
+      <c r="CE34">
+        <v>1</v>
+      </c>
+      <c r="CF34">
+        <v>1</v>
+      </c>
+      <c r="CG34">
+        <v>1</v>
+      </c>
+      <c r="CH34">
+        <v>1</v>
+      </c>
+      <c r="CI34">
+        <v>1</v>
+      </c>
+      <c r="CJ34">
+        <v>1</v>
+      </c>
+      <c r="CK34">
+        <v>1</v>
+      </c>
+      <c r="CL34">
+        <v>1</v>
+      </c>
+      <c r="CM34">
+        <v>1</v>
+      </c>
+      <c r="CN34">
+        <v>1</v>
+      </c>
+      <c r="CO34">
+        <v>1</v>
+      </c>
+      <c r="CP34">
+        <v>1</v>
+      </c>
+      <c r="CQ34">
+        <v>1</v>
+      </c>
+      <c r="CR34">
+        <v>1</v>
+      </c>
+      <c r="CS34">
+        <v>1</v>
+      </c>
+      <c r="CT34">
+        <v>1</v>
+      </c>
+      <c r="CU34">
+        <v>1</v>
+      </c>
+      <c r="CV34">
+        <v>1</v>
+      </c>
+      <c r="CW34">
+        <v>1</v>
+      </c>
+      <c r="CX34">
+        <v>1</v>
+      </c>
+      <c r="CY34">
+        <v>1</v>
+      </c>
+      <c r="CZ34">
+        <v>1</v>
+      </c>
+      <c r="DA34">
+        <v>1</v>
+      </c>
+      <c r="DB34">
+        <v>1</v>
+      </c>
+      <c r="DC34">
+        <v>1</v>
+      </c>
+      <c r="DD34">
+        <v>1</v>
+      </c>
+      <c r="DE34">
+        <v>1</v>
+      </c>
+      <c r="DF34">
+        <v>1</v>
+      </c>
+      <c r="DG34">
+        <v>1</v>
+      </c>
+      <c r="DH34">
+        <v>1</v>
+      </c>
+      <c r="DI34">
+        <v>1</v>
+      </c>
+      <c r="DJ34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:114">
       <c r="A35" t="s">
         <v>0</v>
       </c>
+      <c r="B35" s="8">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>1</v>
+      </c>
+      <c r="O35" s="8">
+        <v>1</v>
+      </c>
+      <c r="P35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>1</v>
+      </c>
+      <c r="R35" s="8">
+        <v>1</v>
+      </c>
+      <c r="S35" s="8">
+        <v>1</v>
+      </c>
+      <c r="T35" s="8">
+        <v>1</v>
+      </c>
+      <c r="U35" s="8">
+        <v>1</v>
+      </c>
+      <c r="V35" s="8">
+        <v>1</v>
+      </c>
+      <c r="W35" s="8">
+        <v>1</v>
+      </c>
+      <c r="X35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:114">
+      <c r="B36" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7797,17 +12336,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB46A8C1-74BD-4159-A93B-242331AFED44}">
   <dimension ref="A1:CY35"/>
   <sheetViews>
-    <sheetView topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="CN12" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -8305,6 +12844,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8317,13 +12857,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -8821,6 +13361,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8829,17 +13370,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB71332-F2B3-4AE1-83A4-2A4B3BD08C08}">
   <dimension ref="A1:CY35"/>
   <sheetViews>
-    <sheetView topLeftCell="CF1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -9337,6 +13878,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9349,13 +13891,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -9853,6 +14395,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9865,13 +14408,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -10369,6 +14912,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10381,13 +14925,13 @@
       <selection activeCell="E15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -10885,6 +15429,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10897,13 +15442,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -11401,6 +15946,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11413,13 +15959,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -11917,6 +16463,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11929,13 +16476,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -12433,6 +16980,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12445,13 +16993,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -12949,6 +17497,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12961,13 +17510,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -13465,6 +18014,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13477,13 +18027,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -13981,6 +18531,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13989,20 +18540,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE269BA-B913-40E0-9259-AEC24615C076}">
   <dimension ref="A1:CY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V13" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="X16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -15812,6 +20363,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15824,13 +20376,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -16328,6 +20880,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16340,13 +20893,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -16844,6 +21397,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16856,13 +21410,13 @@
       <selection activeCell="E13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -17360,6 +21914,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17372,13 +21927,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -17876,6 +22431,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17888,13 +22444,13 @@
       <selection activeCell="CN12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="38.6" customHeight="1">
+    <row r="1" spans="1:103" ht="38.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -18392,6 +22948,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>